--- a/server/LISTAS/ma/SOPORTE BRACKET.xlsx
+++ b/server/LISTAS/ma/SOPORTE BRACKET.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/SOPORTE BRACKET.xlsx
+++ b/server/LISTAS/ma/SOPORTE BRACKET.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C33" s="29" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>389.678</v>
+        <v>767.647</v>
       </c>
       <c r="E33" s="3" t="n"/>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="16" t="n">
-        <v>578.188</v>
+        <v>1139.001</v>
       </c>
       <c r="E34" s="3" t="n"/>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="16" t="n">
-        <v>724.486</v>
+        <v>1427.198</v>
       </c>
       <c r="E35" s="3" t="n"/>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C36" s="29" t="n"/>
       <c r="D36" s="16" t="n">
-        <v>872.208</v>
+        <v>1718.204</v>
       </c>
       <c r="E36" s="3" t="n"/>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C37" s="29" t="n"/>
       <c r="D37" s="16" t="n">
-        <v>953.813</v>
+        <v>1878.96</v>
       </c>
       <c r="E37" s="3" t="n"/>
     </row>
@@ -1128,17 +1128,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE BRACKET.xlsx
+++ b/server/LISTAS/ma/SOPORTE BRACKET.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/SOPORTE BRACKET.xlsx
+++ b/server/LISTAS/ma/SOPORTE BRACKET.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1128,17 +1128,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE BRACKET.xlsx
+++ b/server/LISTAS/ma/SOPORTE BRACKET.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1128,17 +1128,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE BRACKET.xlsx
+++ b/server/LISTAS/ma/SOPORTE BRACKET.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1128,17 +1128,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE BRACKET.xlsx
+++ b/server/LISTAS/ma/SOPORTE BRACKET.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C33" s="29" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>389.678</v>
+        <v>767.647</v>
       </c>
       <c r="E33" s="3" t="n"/>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="16" t="n">
-        <v>578.188</v>
+        <v>1139.001</v>
       </c>
       <c r="E34" s="3" t="n"/>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="16" t="n">
-        <v>724.486</v>
+        <v>1427.198</v>
       </c>
       <c r="E35" s="3" t="n"/>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C36" s="29" t="n"/>
       <c r="D36" s="16" t="n">
-        <v>872.208</v>
+        <v>1718.204</v>
       </c>
       <c r="E36" s="3" t="n"/>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C37" s="29" t="n"/>
       <c r="D37" s="16" t="n">
-        <v>953.813</v>
+        <v>1878.96</v>
       </c>
       <c r="E37" s="3" t="n"/>
     </row>
@@ -1128,17 +1128,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
